--- a/website/data/0011_davies_and_comrie.xlsx
+++ b/website/data/0011_davies_and_comrie.xlsx
@@ -1081,9 +1081,6 @@
     <t>iľubuŋ 6</t>
   </si>
   <si>
-    <t>tʰaǥᵗč/š 7</t>
-  </si>
-  <si>
     <t>g̣̣auwa 1</t>
   </si>
   <si>
@@ -2012,9 +2009,6 @@
     <t>mɤ'na 2</t>
   </si>
   <si>
-    <t>b 3</t>
-  </si>
-  <si>
     <t>mampʰ 4</t>
   </si>
   <si>
@@ -7348,6 +7342,12 @@
   </si>
   <si>
     <t>'yả 1</t>
+  </si>
+  <si>
+    <t>tʰaǥᵗč|š 7</t>
+  </si>
+  <si>
+    <t>bɨ 3</t>
   </si>
 </sst>
 </file>
@@ -7804,9 +7804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DM100"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA11" sqref="AA11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0"/>
@@ -7855,13 +7855,13 @@
         <v>238</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>2204</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>2205</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>2206</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>306</v>
@@ -7873,298 +7873,298 @@
         <v>308</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="W1" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="Y1" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AO1" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>2272</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>2273</v>
       </c>
-      <c r="AQ1" s="3" t="s">
-        <v>2274</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>2275</v>
-      </c>
       <c r="AS1" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="BK1" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="BN1" s="3" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="BP1" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="BQ1" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="BR1" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="BS1" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="BT1" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="BU1" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="BV1" s="3" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BW1" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="BX1" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="BY1" s="3" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="BZ1" s="3" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="CA1" s="3" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="CB1" s="3" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="CC1" s="3" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="CD1" s="3" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="CE1" s="3" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="CF1" s="3" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="CG1" s="3" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="CH1" s="3" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="CI1" s="3" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="CJ1" s="3" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="CK1" s="3" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="CL1" s="3" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="CM1" s="3" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="CO1" s="3" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="CP1" s="3" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="CQ1" s="3" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="CR1" s="3" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="CS1" s="3" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="CT1" s="3" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="CU1" s="3" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="CV1" s="3" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="CW1" s="3" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="CX1" s="3" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="CY1" s="3" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="CZ1" s="3" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="DA1" s="3" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="DB1" s="3" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="DC1" s="3" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="DD1" s="3" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="DE1" s="3" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="DF1" s="3" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="DG1" s="3" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="DH1" s="3" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="DI1" s="3" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="DJ1" s="3" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="DK1" s="3" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="DL1" s="3" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="DM1" s="3" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="19" customHeight="1">
@@ -8223,70 +8223,70 @@
         <v>324</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>324</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>53</v>
@@ -8304,49 +8304,49 @@
         <v>53</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="BI2" s="3" t="s">
         <v>53</v>
@@ -8355,28 +8355,28 @@
         <v>53</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="BP2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="BS2" s="3" t="s">
         <v>53</v>
@@ -8385,10 +8385,10 @@
         <v>53</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="BW2" s="3" t="s">
         <v>53</v>
@@ -8397,16 +8397,16 @@
         <v>53</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="CA2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="CC2" s="3" t="s">
         <v>53</v>
@@ -8466,10 +8466,10 @@
         <v>53</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="CX2" s="3" t="s">
         <v>53</v>
@@ -8493,7 +8493,7 @@
         <v>53</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="DF2" s="3" t="s">
         <v>53</v>
@@ -8561,10 +8561,10 @@
         <v>240</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>287</v>
@@ -8576,205 +8576,205 @@
         <v>325</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>325</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="BJ3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="BP3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="BW3" s="4" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="CE3" s="3" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="CH3" s="3" t="s">
         <v>53</v>
@@ -8819,13 +8819,13 @@
         <v>53</v>
       </c>
       <c r="CV3" s="3" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="CW3" s="3" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="CX3" s="3" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="CY3" s="3" t="s">
         <v>53</v>
@@ -8846,31 +8846,31 @@
         <v>53</v>
       </c>
       <c r="DE3" s="3" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="DF3" s="3" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="DG3" s="3" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="DH3" s="3" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="DI3" s="3" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="DJ3" s="3" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="DK3" s="3" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="DL3" s="3" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="DM3" s="3" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="4" spans="1:117" ht="19" customHeight="1">
@@ -8902,19 +8902,19 @@
         <v>172</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>206</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>286</v>
@@ -8926,304 +8926,304 @@
         <v>311</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="BQ4" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="BT4" s="4" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="BU4" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="BW4" s="4" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="BY4" s="4" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="CA4" s="3" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="CE4" s="3" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="CG4" s="3" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="CI4" s="3" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="CJ4" s="4" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="CK4" s="4" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="CL4" s="3" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="CM4" s="4" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="CN4" s="3" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="CO4" s="3" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="CQ4" s="3" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="CR4" s="4" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="CS4" s="3" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="CT4" s="3" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="CU4" s="3" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="CV4" s="3" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="CW4" s="3" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="CX4" s="4" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="CY4" s="4" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="CZ4" s="4" t="s">
+        <v>1973</v>
+      </c>
+      <c r="DA4" s="4" t="s">
         <v>1975</v>
       </c>
-      <c r="DA4" s="4" t="s">
-        <v>1977</v>
-      </c>
       <c r="DB4" s="4" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="DC4" s="4" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="DD4" s="4" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="DE4" s="3" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="DF4" s="3" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="DG4" s="3" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="DH4" s="4" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="DI4" s="4" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="DJ4" s="4" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="DK4" s="4" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="DL4" s="3" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="DM4" s="3" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="5" spans="1:117" ht="19" customHeight="1">
@@ -9255,22 +9255,22 @@
         <v>173</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>2228</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>2230</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>256</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>289</v>
@@ -9279,304 +9279,304 @@
         <v>312</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>2285</v>
       </c>
-      <c r="W5" s="4" t="s">
-        <v>2287</v>
-      </c>
       <c r="X5" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AX5" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AY5" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="BA5" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BC5" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="BI5" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="BL5" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="BN5" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="BO5" s="4" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="BP5" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="BQ5" s="4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="BR5" s="4" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="BS5" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="BT5" s="4" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="BU5" s="3" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="BV5" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="BW5" s="4" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="BX5" s="3" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="BY5" s="3" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="BZ5" s="4" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="CB5" s="3" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="CC5" s="3" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="CE5" s="3" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="CF5" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="CG5" s="3" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="CH5" s="3" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="CI5" s="3" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="CK5" s="3" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="CL5" s="4" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="CM5" s="4" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="CN5" s="3" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="CO5" s="3" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="CP5" s="4" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="CQ5" s="4" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="CR5" s="3" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="CS5" s="3" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="CT5" s="3" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="CU5" s="4" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="CV5" s="4" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="CW5" s="4" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="CX5" s="3" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="CY5" s="4" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="CZ5" s="3" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="DA5" s="3" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="DB5" s="3" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="DC5" s="4" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="DD5" s="4" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="DE5" s="3" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="DF5" s="3" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="DG5" s="4" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="DH5" s="3" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="DI5" s="4" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="DJ5" s="4" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="DK5" s="4" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="DL5" s="4" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="DM5" s="4" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="6" spans="1:117" ht="19" customHeight="1">
@@ -9635,127 +9635,127 @@
         <v>325</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="BD6" s="3" t="s">
         <v>154</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="BF6" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="BG6" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="BH6" s="3" t="s">
         <v>53</v>
@@ -9764,172 +9764,172 @@
         <v>53</v>
       </c>
       <c r="BJ6" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="BP6" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="BQ6" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="BT6" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="BU6" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="BV6" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="BW6" s="3" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="BY6" s="3" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="BZ6" s="3" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="CB6" s="3" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="CE6" s="3" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="CF6" s="3" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="CG6" s="3" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="CH6" s="3" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="CI6" s="3" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="CJ6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK6" s="3" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="CL6" s="3" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="CM6" s="3" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="CN6" s="3" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="CO6" s="3" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="CP6" s="3" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="CQ6" s="3" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="CR6" s="3" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="CS6" s="3" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="CT6" s="3" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="CU6" s="3" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="CV6" s="3" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="CW6" s="3" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="CX6" s="3" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="CY6" s="3" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="CZ6" s="3" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="DA6" s="3" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="DB6" s="3" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="DC6" s="3" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="DD6" s="3" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="DE6" s="3" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="DF6" s="3" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="DG6" s="3" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="DH6" s="3" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="DI6" s="3" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="DJ6" s="3" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="DK6" s="3" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="DL6" s="3" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="DM6" s="3" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="7" spans="1:117" ht="19" customHeight="1">
@@ -9988,301 +9988,301 @@
         <v>326</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AD7" s="3" t="s">
         <v>326</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="BF7" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="BJ7" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="BO7" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="BP7" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="BQ7" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="BR7" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="BT7" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="BU7" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="BV7" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="BW7" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="BY7" s="3" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="BZ7" s="3" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="CA7" s="3" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="CB7" s="3" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="CD7" s="3" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="CE7" s="3" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="CF7" s="3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="CG7" s="3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="CH7" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="CI7" s="3" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="CJ7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK7" s="3" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="CL7" s="3" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="CM7" s="3" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="CN7" s="3" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="CO7" s="3" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="CP7" s="3" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="CQ7" s="3" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="CR7" s="3" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="CS7" s="3" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="CT7" s="3" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="CU7" s="3" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="CV7" s="3" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="CW7" s="3" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="CX7" s="3" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="CY7" s="3" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="CZ7" s="3" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="DA7" s="3" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="DB7" s="3" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="DC7" s="3" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="DD7" s="3" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="DE7" s="3" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="DF7" s="3" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="DG7" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="DH7" s="3" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="DI7" s="3" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="DJ7" s="3" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="DK7" s="3" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="DL7" s="3" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="DM7" s="3" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="8" spans="1:117" ht="19" customHeight="1">
@@ -10341,301 +10341,301 @@
         <v>327</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>326</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AS8" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AV8" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AY8" s="3" t="s">
         <v>135</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="BF8" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="BG8" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="BI8" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="BJ8" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="BK8" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BN8" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="BO8" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="BP8" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="BQ8" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="BR8" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="BS8" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="BT8" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="BU8" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="BV8" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="BW8" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="BX8" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="BY8" s="3" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="BZ8" s="3" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="CA8" s="3" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="CB8" s="3" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="CD8" s="3" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="CE8" s="3" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="CF8" s="3" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="CG8" s="3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="CH8" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="CI8" s="3" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="CK8" s="3" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="CL8" s="3" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="CM8" s="3" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="CN8" s="3" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="CO8" s="3" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="CP8" s="3" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="CQ8" s="3" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="CR8" s="3" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="CS8" s="3" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="CT8" s="3" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="CU8" s="3" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="CV8" s="3" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="CW8" s="3" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="CX8" s="3" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="CY8" s="3" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="CZ8" s="3" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="DA8" s="3" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="DB8" s="3" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="DC8" s="3" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="DD8" s="3" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="DE8" s="3" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="DF8" s="3" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="DG8" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="DH8" s="3" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="DI8" s="3" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="DJ8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="DK8" s="3" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="DL8" s="3" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="DM8" s="3" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="9" spans="1:117" ht="19" customHeight="1">
@@ -10694,301 +10694,301 @@
         <v>326</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>326</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AX9" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AY9" s="3" t="s">
         <v>135</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BA9" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BB9" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BC9" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="BD9" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="BF9" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="BG9" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="BH9" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="BI9" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="BJ9" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="BK9" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BL9" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="BM9" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="BO9" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="BP9" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="BQ9" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="BR9" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="BS9" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="BT9" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="BU9" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="BV9" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="BW9" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="BX9" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="BY9" s="3" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="BZ9" s="3" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="CA9" s="3" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="CB9" s="3" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="CC9" s="3" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="CD9" s="3" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="CE9" s="3" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="CF9" s="3" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="CG9" s="3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="CH9" s="3" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="CI9" s="3" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="CK9" s="3" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="CL9" s="3" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="CM9" s="3" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="CN9" s="3" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="CO9" s="3" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="CP9" s="3" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="CQ9" s="3" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="CR9" s="3" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="CS9" s="3" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="CT9" s="3" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="CU9" s="3" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="CV9" s="3" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="CW9" s="3" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="CX9" s="3" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="CY9" s="3" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="CZ9" s="3" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="DA9" s="3" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="DB9" s="3" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="DC9" s="3" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="DD9" s="3" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="DE9" s="3" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="DF9" s="3" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="DG9" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="DH9" s="3" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="DI9" s="3" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="DJ9" s="3" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="DK9" s="3" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="DL9" s="3" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="DM9" s="3" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="10" spans="1:117" ht="19" customHeight="1">
@@ -11045,301 +11045,301 @@
         <v>328</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>328</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AW10" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AX10" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AY10" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="BD10" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="BF10" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="BG10" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="BI10" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="BJ10" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="BK10" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="BL10" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="BO10" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="BP10" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="BQ10" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="BR10" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="BT10" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="BU10" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="BV10" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="BW10" s="3" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="BX10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BY10" s="3" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="BZ10" s="3" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="CA10" s="3" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="CB10" s="3" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="CC10" s="3" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="CD10" s="3" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="CE10" s="3" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="CF10" s="3" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="CG10" s="3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="CH10" s="3" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="CI10" s="3" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="CJ10" s="3" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="CK10" s="3" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="CL10" s="3" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="CM10" s="3" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="CN10" s="3" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="CO10" s="3" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="CP10" s="3" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="CQ10" s="3" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="CR10" s="3" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="CS10" s="3" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="CT10" s="3" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="CU10" s="3" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="CV10" s="3" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="CW10" s="3" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="CX10" s="3" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="CY10" s="3" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="CZ10" s="3" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="DA10" s="3" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="DB10" s="3" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="DC10" s="3" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="DD10" s="3" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="DE10" s="3" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="DF10" s="3" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="DG10" s="3" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="DH10" s="3" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="DI10" s="3" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="DJ10" s="3" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="DK10" s="3" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="DL10" s="3" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="DM10" s="3" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="11" spans="1:117" ht="19" customHeight="1">
@@ -11398,22 +11398,22 @@
         <v>329</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>53</v>
@@ -11422,277 +11422,277 @@
         <v>260</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>326</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AO11" s="3" t="s">
         <v>260</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AU11" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="AV11" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AW11" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AX11" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AY11" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AZ11" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BB11" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="BD11" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="BF11" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="BG11" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="BH11" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="BI11" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="BJ11" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="BK11" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BL11" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="BM11" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="BO11" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="BP11" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="BQ11" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="BR11" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="BT11" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="BU11" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="BV11" s="3" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="BW11" s="3" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="BX11" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="BY11" s="3" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="BZ11" s="3" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="CA11" s="3" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="CB11" s="3" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="CC11" s="3" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="CD11" s="3" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="CE11" s="3" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="CF11" s="3" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="CG11" s="3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="CH11" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="CI11" s="3" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="CK11" s="3" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="CL11" s="3" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="CM11" s="3" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="CN11" s="3" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="CO11" s="3" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="CP11" s="3" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="CQ11" s="3" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="CR11" s="3" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="CS11" s="3" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="CT11" s="3" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="CU11" s="3" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="CV11" s="3" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="CW11" s="3" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="CX11" s="3" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="CY11" s="3" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="CZ11" s="3" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="DA11" s="3" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="DB11" s="3" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="DC11" s="3" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="DD11" s="3" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="DE11" s="3" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="DF11" s="3" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="DG11" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="DH11" s="3" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="DI11" s="3" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="DJ11" s="3" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="DK11" s="3" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="DL11" s="3" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="DM11" s="3" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="12" spans="1:117" ht="19" customHeight="1">
@@ -11751,301 +11751,301 @@
         <v>326</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>326</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AJ12" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AN12" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AQ12" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AU12" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="AW12" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AX12" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AY12" s="3" t="s">
         <v>135</v>
       </c>
       <c r="AZ12" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="BA12" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BC12" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="BD12" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="BF12" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="BG12" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="BI12" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="BJ12" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BK12" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BL12" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="BM12" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BN12" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="BO12" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="BP12" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="BQ12" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="BR12" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="BS12" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="BT12" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="BU12" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="BV12" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="BW12" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="BX12" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="BY12" s="3" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="BZ12" s="3" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="CA12" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="CB12" s="3" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="CC12" s="3" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="CD12" s="3" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="CE12" s="3" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="CF12" s="3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="CG12" s="3" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="CH12" s="3" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="CI12" s="3" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="CJ12" s="3" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="CK12" s="3" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="CL12" s="3" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="CM12" s="3" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="CN12" s="3" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="CO12" s="3" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="CP12" s="3" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="CQ12" s="3" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="CR12" s="3" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="CS12" s="3" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="CT12" s="3" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="CU12" s="3" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="CV12" s="3" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="CW12" s="3" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="CX12" s="3" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="CY12" s="3" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="CZ12" s="3" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="DA12" s="3" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="DB12" s="4" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="DC12" s="3" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="DD12" s="3" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="DE12" s="3" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="DF12" s="3" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="DG12" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="DH12" s="3" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="DI12" s="3" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="DJ12" s="3" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="DK12" s="3" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="DL12" s="3" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="DM12" s="3" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="13" spans="1:117" ht="19" customHeight="1">
@@ -12089,7 +12089,7 @@
         <v>245</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>278</v>
@@ -12098,307 +12098,307 @@
         <v>296</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>330</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AX13" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AY13" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AZ13" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="BC13" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="BD13" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="BF13" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="BG13" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="BI13" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="BL13" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BO13" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="BP13" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="BQ13" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="BR13" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="BS13" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="BU13" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="BV13" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="BW13" s="3" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="BX13" s="3" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="BY13" s="3" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="BZ13" s="4" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="CA13" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="CB13" s="3" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="CC13" s="3" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="CD13" s="3" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="CE13" s="3" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="CF13" s="3" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="CG13" s="3" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="CH13" s="3" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="CI13" s="3" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="CJ13" s="3" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="CK13" s="3" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="CL13" s="3" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="CM13" s="3" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="CN13" s="3" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="CO13" s="4" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="CP13" s="3" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="CQ13" s="3" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="CR13" s="4" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="CS13" s="4" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="CT13" s="4" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="CU13" s="3" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="CV13" s="3" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="CW13" s="3" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="CX13" s="4" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="CY13" s="3" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="CZ13" s="3" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="DA13" s="4" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="DB13" s="4" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="DC13" s="3" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="DD13" s="3" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="DE13" s="4" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="DF13" s="4" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="DG13" s="3" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="DH13" s="3" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="DI13" s="4" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="DJ13" s="3" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="DK13" s="3" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="DL13" s="3" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="DM13" s="3" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="14" spans="1:117" ht="19" customHeight="1">
@@ -12451,307 +12451,307 @@
         <v>297</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>331</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AN14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AW14" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AX14" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AY14" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="BA14" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="BD14" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="BF14" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="BG14" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="BI14" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="BJ14" s="3" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="BK14" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="BL14" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="BM14" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="BO14" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="BP14" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="BQ14" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="BR14" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="BS14" s="3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="BT14" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="BU14" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="BV14" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="BW14" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="BX14" s="3" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="BY14" s="3" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="BZ14" s="3" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="CA14" s="3" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="CB14" s="3" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="CC14" s="3" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="CD14" s="3" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="CE14" s="3" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="CF14" s="3" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="CG14" s="5" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="CH14" s="3" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="CI14" s="3" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="CJ14" s="3" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="CK14" s="3" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="CL14" s="3" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="CM14" s="3" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="CN14" s="3" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="CO14" s="3" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="CP14" s="3" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="CQ14" s="3" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="CR14" s="4" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="CS14" s="3" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="CT14" s="3" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="CU14" s="4" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="CV14" s="4" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="CW14" s="3" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="CX14" s="3" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="CY14" s="3" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="CZ14" s="3" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="DA14" s="3" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="DB14" s="4" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="DC14" s="3" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="DD14" s="3" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="DE14" s="3" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="DF14" s="3" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="DG14" s="3" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="DH14" s="3" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="DI14" s="3" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="DJ14" s="3" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="DK14" s="3" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="DL14" s="3" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="DM14" s="3" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="15" spans="1:117" ht="19" customHeight="1">
@@ -12825,19 +12825,19 @@
         <v>53</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>53</v>
@@ -12867,7 +12867,7 @@
         <v>53</v>
       </c>
       <c r="AL15" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AM15" s="3" t="s">
         <v>53</v>
@@ -12897,22 +12897,22 @@
         <v>53</v>
       </c>
       <c r="AV15" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AW15" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AX15" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="AZ15" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="BA15" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="BB15" s="3" t="s">
         <v>53</v>
@@ -12927,7 +12927,7 @@
         <v>53</v>
       </c>
       <c r="BF15" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="BG15" s="3" t="s">
         <v>53</v>
@@ -12942,22 +12942,22 @@
         <v>53</v>
       </c>
       <c r="BK15" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="BL15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BM15" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="BN15" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="BO15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BP15" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="BQ15" s="3" t="s">
         <v>53</v>
@@ -13005,7 +13005,7 @@
         <v>53</v>
       </c>
       <c r="CF15" s="3" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="CG15" s="3" t="s">
         <v>53</v>
@@ -13151,298 +13151,298 @@
         <v>265</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>299</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>331</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AS16" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AT16" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AU16" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="AV16" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AW16" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AX16" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AY16" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AZ16" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="BA16" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="BC16" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="BD16" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="BF16" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="BG16" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="BH16" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="BI16" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="BJ16" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="BK16" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="BL16" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="BM16" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="BN16" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="BO16" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="BP16" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="BQ16" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="BR16" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="BS16" s="4" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="BT16" s="4" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="BU16" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="BV16" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="BW16" s="3" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="BX16" s="3" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="BY16" s="3" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="BZ16" s="3" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="CA16" s="3" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="CB16" s="3" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="CC16" s="3" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="CD16" s="3" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="CE16" s="3" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="CF16" s="3" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="CG16" s="4" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="CH16" s="4" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="CI16" s="3" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="CJ16" s="3" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="CK16" s="3" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="CL16" s="3" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="CM16" s="4" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="CN16" s="3" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="CO16" s="3" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="CP16" s="3" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="CQ16" s="3" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="CR16" s="3" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="CS16" s="3" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="CT16" s="3" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="CU16" s="4" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="CV16" s="3" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="CW16" s="3" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="CX16" s="3" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="CY16" s="4" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="CZ16" s="3" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="DA16" s="3" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="DB16" s="4" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="DC16" s="3" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="DD16" s="3" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="DE16" s="3" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="DF16" s="3" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="DG16" s="3" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="DH16" s="3" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="DI16" s="4" t="s">
         <v>53</v>
@@ -13451,7 +13451,7 @@
         <v>53</v>
       </c>
       <c r="DK16" s="4" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="DL16" s="3" t="s">
         <v>53</v>
@@ -13468,7 +13468,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>83</v>
@@ -13477,7 +13477,7 @@
         <v>104</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>142</v>
@@ -13489,13 +13489,13 @@
         <v>183</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>215</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>248</v>
@@ -13507,7 +13507,7 @@
         <v>285</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>317</v>
@@ -13516,301 +13516,301 @@
         <v>332</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>639</v>
+        <v>2310</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AS17" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AU17" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AW17" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AY17" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AZ17" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="BC17" s="3" t="s">
         <v>184</v>
       </c>
       <c r="BD17" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="BE17" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="BF17" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="BG17" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="BH17" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="BI17" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="BJ17" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="BK17" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="BL17" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="BM17" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="BN17" s="4" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="BO17" s="4" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="BP17" s="4" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="BQ17" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="BR17" s="4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="BS17" s="4" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="BT17" s="3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="BU17" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="BV17" s="3" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="BW17" s="3" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="BY17" s="3" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="BZ17" s="3" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="CA17" s="3" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="CB17" s="3" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="CC17" s="4" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="CD17" s="3" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="CE17" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="CF17" s="4" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="CG17" s="3" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="CH17" s="4" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="CI17" s="3" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="CJ17" s="3" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="CK17" s="3" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="CL17" s="4" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="CM17" s="4" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="CN17" s="3" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="CO17" s="3" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="CP17" s="3" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="CQ17" s="4" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="CR17" s="4" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="CS17" s="4" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="CT17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CU17" s="3" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="CV17" s="3" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="CW17" s="4" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="CX17" s="4" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="CY17" s="4" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="CZ17" s="4" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="DA17" s="4" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="DB17" s="4" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="DC17" s="3" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="DD17" s="3" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="DE17" s="3" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="DF17" s="3" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="DG17" s="3" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="DH17" s="3" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="DI17" s="4" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="DJ17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="DK17" s="4" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="DL17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="DM17" s="3" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="18" spans="1:117" ht="19" customHeight="1">
@@ -13821,7 +13821,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>84</v>
@@ -13830,7 +13830,7 @@
         <v>105</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>143</v>
@@ -13857,313 +13857,313 @@
         <v>267</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>300</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AX18" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AY18" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AZ18" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="BA18" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="BC18" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="BD18" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="BF18" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="BG18" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="BH18" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="BI18" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="BJ18" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="BK18" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="BL18" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="BM18" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="BN18" s="4" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="BO18" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="BP18" s="4" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="BQ18" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="BR18" s="4" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="BS18" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="BT18" s="3" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="BU18" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="BV18" s="3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="BW18" s="3" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="BX18" s="3" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="BY18" s="4" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="BZ18" s="3" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="CA18" s="3" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="CB18" s="4" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="CC18" s="3" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="CD18" s="3" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="CE18" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="CF18" s="4" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="CG18" s="3" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="CH18" s="3" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="CI18" s="3" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="CJ18" s="3" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="CK18" s="4" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="CL18" s="4" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="CM18" s="4" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="CN18" s="4" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="CO18" s="3" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="CP18" s="4" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="CQ18" s="3" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="CR18" s="3" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="CS18" s="3" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="CT18" s="4" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="CU18" s="4" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="CV18" s="3" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="CW18" s="3" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="CX18" s="4" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="CY18" s="3" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="CZ18" s="4" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="DA18" s="4" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="DB18" s="4" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="DC18" s="3" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="DD18" s="3" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="DE18" s="3" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="DF18" s="3" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="DG18" s="4" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="DH18" s="3" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="DI18" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="DJ18" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="DK18" s="3" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="DL18" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="DM18" s="4" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="19" spans="1:117" ht="19" customHeight="1">
@@ -14222,91 +14222,91 @@
         <v>333</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AD19" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AP19" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AQ19" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AV19" s="3" t="s">
         <v>53</v>
@@ -14370,7 +14370,7 @@
         <v>53</v>
       </c>
       <c r="BQ19" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="BR19" s="3" t="s">
         <v>53</v>
@@ -14528,22 +14528,22 @@
         <v>69</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>2213</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>2215</v>
-      </c>
       <c r="F20" s="4" t="s">
+        <v>2216</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>2218</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>2220</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>199</v>
@@ -14558,7 +14558,7 @@
         <v>251</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>282</v>
@@ -14573,301 +14573,301 @@
         <v>334</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="Y20" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="Z20" s="4" t="s">
         <v>2298</v>
       </c>
-      <c r="Z20" s="4" t="s">
-        <v>2300</v>
-      </c>
       <c r="AA20" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AK20" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AQ20" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AU20" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="BF20" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="BG20" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="BH20" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="BI20" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="BJ20" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="BK20" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="BL20" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="BM20" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="BN20" s="4" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="BO20" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="BP20" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="BQ20" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="BR20" s="4" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="BS20" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="BT20" s="4" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="BU20" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="BV20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BW20" s="3" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="BX20" s="3" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="BY20" s="4" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="BZ20" s="3" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="CA20" s="3" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="CB20" s="3" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="CC20" s="3" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="CE20" s="3" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="CF20" s="3" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="CG20" s="3" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="CH20" s="3" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="CI20" s="3" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="CJ20" s="3" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="CK20" s="4" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="CL20" s="3" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="CM20" s="3" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="CN20" s="3" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="CO20" s="3" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="CP20" s="3" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="CQ20" s="3" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="CR20" s="4" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="CS20" s="3" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="CT20" s="4" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="CU20" s="3" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="CV20" s="3" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="CW20" s="4" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="CX20" s="4" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="CY20" s="4" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="CZ20" s="3" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="DA20" s="3" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="DB20" s="3" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="DC20" s="4" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="DD20" s="4" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="DE20" s="3" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="DF20" s="3" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="DG20" s="4" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="DH20" s="3" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="DI20" s="4" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="DJ20" s="4" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="DK20" s="3" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="DL20" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="DM20" s="3" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="21" spans="1:117" ht="19" customHeight="1">
@@ -14926,223 +14926,223 @@
         <v>335</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AU21" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AV21" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AW21" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="BD21" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="BG21" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="BH21" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="BI21" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="BJ21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BK21" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="BL21" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="BM21" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="BN21" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="BO21" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="BP21" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="BQ21" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="BR21" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="BS21" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="BT21" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="BU21" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="BV21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BW21" s="3" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="BX21" s="3" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="BY21" s="3" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="BZ21" s="3" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="CA21" s="3" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="CB21" s="3" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="CC21" s="3" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="CD21" s="3" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="CE21" s="3" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="CF21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CG21" s="3" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="CH21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CI21" s="3" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="CJ21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK21" s="3" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="CL21" s="3" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="CM21" s="3" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="CN21" s="3" t="s">
         <v>53</v>
@@ -15169,13 +15169,13 @@
         <v>53</v>
       </c>
       <c r="CV21" s="3" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="CW21" s="3" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="CX21" s="3" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="CY21" s="3" t="s">
         <v>53</v>
@@ -15196,31 +15196,31 @@
         <v>53</v>
       </c>
       <c r="DE21" s="3" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="DF21" s="3" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="DG21" s="3" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="DH21" s="3" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="DI21" s="3" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="DJ21" s="3" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="DK21" s="3" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="DL21" s="3" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="DM21" s="3" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="22" spans="1:117" ht="19" customHeight="1">
@@ -15279,175 +15279,175 @@
         <v>336</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AL22" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AQ22" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AU22" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AX22" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AY22" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AZ22" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="BA22" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="BB22" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="BC22" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="BD22" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="BF22" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="BG22" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="BH22" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="BI22" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="BJ22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BK22" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="BL22" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="BM22" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="BN22" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="BO22" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="BP22" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="BQ22" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="BR22" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="BS22" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="BT22" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="BU22" s="3" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="BV22" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="BW22" s="3" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="BX22" s="3" t="s">
         <v>53</v>
@@ -15459,19 +15459,19 @@
         <v>53</v>
       </c>
       <c r="CA22" s="3" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="CB22" s="3" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="CC22" s="3" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="CD22" s="3" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="CE22" s="3" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="CF22" s="3" t="s">
         <v>53</v>
@@ -15483,19 +15483,19 @@
         <v>53</v>
       </c>
       <c r="CI22" s="3" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="CJ22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK22" s="3" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="CL22" s="3" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="CM22" s="3" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="CN22" s="3" t="s">
         <v>53</v>
@@ -15522,13 +15522,13 @@
         <v>53</v>
       </c>
       <c r="CV22" s="3" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="CW22" s="3" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="CX22" s="3" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="CY22" s="3" t="s">
         <v>53</v>
@@ -15549,16 +15549,16 @@
         <v>53</v>
       </c>
       <c r="DE22" s="3" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="DF22" s="3" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="DG22" s="3" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="DH22" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="DI22" s="3" t="s">
         <v>53</v>
@@ -15567,7 +15567,7 @@
         <v>53</v>
       </c>
       <c r="DK22" s="3" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="DL22" s="3" t="s">
         <v>53</v>
@@ -15620,7 +15620,7 @@
         <v>271</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>305</v>
@@ -15632,199 +15632,199 @@
         <v>337</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG23" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AH23" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AI23" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ23" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AL23" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AQ23" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AR23" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AT23" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AU23" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AV23" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AW23" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AX23" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AY23" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AZ23" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="BA23" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="BB23" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="BC23" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="BD23" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="BF23" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="BJ23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="BL23" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="BM23" s="3" t="s">
         <v>220</v>
       </c>
       <c r="BN23" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="BO23" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="BP23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BQ23" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="BR23" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="BS23" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="BT23" s="3" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="BU23" s="3" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BV23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BW23" s="3" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="BX23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BY23" s="3" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="BZ23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CA23" s="3" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="CB23" s="3" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="CC23" s="3" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="CD23" s="3" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="CE23" s="3" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="CF23" s="3" t="s">
         <v>53</v>
@@ -15836,28 +15836,28 @@
         <v>53</v>
       </c>
       <c r="CI23" s="3" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="CJ23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK23" s="3" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="CL23" s="3" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="CM23" s="3" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="CN23" s="3" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="CO23" s="3" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="CP23" s="3" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="CQ23" s="3" t="s">
         <v>53</v>
@@ -15875,19 +15875,19 @@
         <v>53</v>
       </c>
       <c r="CV23" s="3" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="CW23" s="3" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="CX23" s="3" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="CY23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CZ23" s="3" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="DA23" s="3" t="s">
         <v>53</v>
@@ -15908,7 +15908,7 @@
         <v>53</v>
       </c>
       <c r="DG23" s="3" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="DH23" s="3" t="s">
         <v>53</v>
@@ -15920,7 +15920,7 @@
         <v>53</v>
       </c>
       <c r="DK23" s="3" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="DL23" s="3" t="s">
         <v>53</v>
@@ -15943,343 +15943,343 @@
         <v>89</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>2217</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>2219</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>2221</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>189</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="K24" s="4" t="s">
+        <v>2229</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>2231</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>2233</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>255</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="O24" s="4" t="s">
+        <v>2250</v>
+      </c>
+      <c r="P24" s="4" t="s">
         <v>2252</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>2254</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>323</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>338</v>
+        <v>2309</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG24" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AJ24" s="3" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AN24" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AP24" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AQ24" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AT24" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AU24" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="AW24" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AX24" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AY24" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AZ24" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="BA24" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="BB24" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="BC24" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="BD24" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="BE24" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="BF24" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="BG24" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="BH24" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="BI24" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="BJ24" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="BK24" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="BL24" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="BM24" s="4" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="BN24" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="BO24" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="BP24" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="BQ24" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="BR24" s="4" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="BS24" s="4" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="BT24" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="BU24" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BV24" s="4" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="BW24" s="3" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="BX24" s="4" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="BY24" s="4" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="BZ24" s="4" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="CA24" s="3" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="CB24" s="4" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="CC24" s="3" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="CD24" s="4" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="CE24" s="3" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="CF24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CG24" s="4" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="CH24" s="4" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="CI24" s="4" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="CJ24" s="3" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="CK24" s="3" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="CL24" s="3" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="CM24" s="3" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="CN24" s="4" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="CO24" s="3" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="CP24" s="4" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="CQ24" s="3" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="CR24" s="4" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="CS24" s="3" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="CT24" s="3" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="CU24" s="3" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="CV24" s="3" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="CW24" s="4" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="CX24" s="3" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="CY24" s="4" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="CZ24" s="3" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="DA24" s="4" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="DB24" s="3" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="DC24" s="4" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="DD24" s="3" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="DE24" s="3" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="DF24" s="3" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="DG24" s="3" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="DH24" s="3" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="DI24" s="4" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="DJ24" s="4" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="DK24" s="4" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="DL24" s="4" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="DM24" s="3" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="25" spans="1:117" ht="19" customHeight="1">
@@ -16311,328 +16311,328 @@
         <v>190</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>222</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="O25" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>2251</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>2253</v>
-      </c>
       <c r="Q25" s="4" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AJ25" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AL25" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AM25" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AP25" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AS25" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AU25" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AV25" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AW25" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AX25" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AY25" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AZ25" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="BA25" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="BB25" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="BC25" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="BD25" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="BF25" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="BG25" s="3" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="BH25" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="BI25" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="BJ25" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="BK25" s="4" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="BL25" s="4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BM25" s="4" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="BN25" s="4" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="BO25" s="4" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="BP25" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="BQ25" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="BR25" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="BS25" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="BT25" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="BU25" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="BV25" s="4" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="BW25" s="4" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="BX25" s="4" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="BY25" s="4" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="BZ25" s="4" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="CA25" s="3" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="CB25" s="3" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="CC25" s="4" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="CD25" s="3" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="CE25" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="CF25" s="3" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="CG25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CH25" s="4" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="CI25" s="3" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="CJ25" s="3" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="CK25" s="4" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="CL25" s="4" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="CM25" s="4" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="CN25" s="4" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="CO25" s="4" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="CP25" s="4" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="CQ25" s="4" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="CR25" s="4" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="CS25" s="4" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="CT25" s="4" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="CU25" s="3" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="CV25" s="4" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="CW25" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="CX25" s="4" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="CY25" s="4" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="CZ25" s="4" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="DA25" s="4" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="DB25" s="4" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="DC25" s="4" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="DD25" s="4" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="DE25" s="4" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="DF25" s="4" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="DG25" s="4" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="DH25" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="DI25" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="DJ25" s="4" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="DK25" s="4" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="DL25" s="4" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="DM25" s="4" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="26" spans="1:117" ht="19" customHeight="1">

--- a/website/data/0011_davies_and_comrie.xlsx
+++ b/website/data/0011_davies_and_comrie.xlsx
@@ -2027,9 +2027,6 @@
     <t>yan 7</t>
   </si>
   <si>
-    <t>mᵼč/š 5</t>
-  </si>
-  <si>
     <t>pʰ'kʰa 8</t>
   </si>
   <si>
@@ -3192,9 +3189,6 @@
     <t>ɛnbʌǏɩtʰ 1</t>
   </si>
   <si>
-    <t>sa'gaɽi/ t̮ɕaŋ'gaɽi 1</t>
-  </si>
-  <si>
     <t>ɸaɽa'ɽiŋge 1</t>
   </si>
   <si>
@@ -3932,9 +3926,6 @@
     <t>yaw 2</t>
   </si>
   <si>
-    <t>'kʰuɲč/š 5</t>
-  </si>
-  <si>
     <t>'tʰɨŋ 6</t>
   </si>
   <si>
@@ -4279,9 +4270,6 @@
   </si>
   <si>
     <t>gʌmbi 9</t>
-  </si>
-  <si>
-    <t>'gɛ̈bɩč/š 9</t>
   </si>
   <si>
     <t>tʰɨ'ᵑgɨn 10</t>
@@ -4816,9 +4804,6 @@
     <t>kunambwi 4</t>
   </si>
   <si>
-    <t>xo'daʀ̥̌č/š 5</t>
-  </si>
-  <si>
     <t>pʰʌ'ảm 6</t>
   </si>
   <si>
@@ -5125,9 +5110,6 @@
   </si>
   <si>
     <t>dadʌma 1</t>
-  </si>
-  <si>
-    <t>mɷmo'ɤoŋk͑ /mɷmoŋ'goŋk͑ 2</t>
   </si>
   <si>
     <t>'ɸoŋge 2</t>
@@ -6225,9 +6207,6 @@
     <t>bə'jaɭə 9</t>
   </si>
   <si>
-    <t>/biyanandɩtʰ 10</t>
-  </si>
-  <si>
     <t>'aβdi nəŋ'ampʰ 8</t>
   </si>
   <si>
@@ -7348,6 +7327,27 @@
   </si>
   <si>
     <t>bɨ 3</t>
+  </si>
+  <si>
+    <t>mᵼč / mᵼš 5</t>
+  </si>
+  <si>
+    <t>sa'gaɽi / t̮ɕaŋ'gaɽi 1</t>
+  </si>
+  <si>
+    <t>'kʰuɲč / 'kʰuɲš 5</t>
+  </si>
+  <si>
+    <t>'gɛ̈bɩč / gɛ̈bɩš 9</t>
+  </si>
+  <si>
+    <t>xo'daʀ̥̌č / xo'daʀ̥̌š 5</t>
+  </si>
+  <si>
+    <t>mɷmo'ɤoŋk͑ / mɷmoŋ'goŋk͑ 2</t>
+  </si>
+  <si>
+    <t>biyanandɩtʰ 10</t>
   </si>
 </sst>
 </file>
@@ -7405,8 +7405,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7450,7 +7456,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7462,6 +7468,9 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7473,6 +7482,9 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7804,9 +7816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DM100"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH15" sqref="AH15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DM1" sqref="DE1:DM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0"/>
@@ -7855,13 +7867,13 @@
         <v>238</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>306</v>
@@ -7921,250 +7933,250 @@
         <v>629</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>2271</v>
+        <v>2264</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>2273</v>
+        <v>2266</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="BK1" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="BN1" s="3" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="BP1" s="3" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="BQ1" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="BR1" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="BS1" s="3" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="BT1" s="3" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="BU1" s="3" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="BV1" s="3" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="BW1" s="3" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="BX1" s="3" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="BY1" s="3" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="BZ1" s="3" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="CA1" s="3" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="CB1" s="3" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="CC1" s="3" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="CD1" s="3" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="CE1" s="3" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="CF1" s="3" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="CG1" s="3" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="CH1" s="3" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="CI1" s="3" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="CJ1" s="3" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="CK1" s="3" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="CL1" s="3" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="CM1" s="3" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="CO1" s="3" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="CP1" s="3" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="CQ1" s="3" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="CR1" s="3" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="CS1" s="3" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="CT1" s="3" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="CU1" s="3" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="CV1" s="3" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="CW1" s="3" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="CX1" s="3" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="CY1" s="3" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="CZ1" s="3" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="DA1" s="3" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="DB1" s="3" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="DC1" s="3" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="DD1" s="3" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="DE1" s="3" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
       <c r="DF1" s="3" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="DG1" s="3" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="DH1" s="3" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="DI1" s="3" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="DJ1" s="3" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="DK1" s="3" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="DL1" s="3" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
       <c r="DM1" s="3" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="19" customHeight="1">
@@ -8274,19 +8286,19 @@
         <v>630</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>53</v>
@@ -8304,49 +8316,49 @@
         <v>53</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="BI2" s="3" t="s">
         <v>53</v>
@@ -8355,28 +8367,28 @@
         <v>53</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="BP2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="BS2" s="3" t="s">
         <v>53</v>
@@ -8385,10 +8397,10 @@
         <v>53</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="BW2" s="3" t="s">
         <v>53</v>
@@ -8397,16 +8409,16 @@
         <v>53</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="CA2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="CC2" s="3" t="s">
         <v>53</v>
@@ -8466,10 +8478,10 @@
         <v>53</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="CX2" s="3" t="s">
         <v>53</v>
@@ -8493,7 +8505,7 @@
         <v>53</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>2046</v>
+        <v>2039</v>
       </c>
       <c r="DF2" s="3" t="s">
         <v>53</v>
@@ -8561,10 +8573,10 @@
         <v>240</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>287</v>
@@ -8588,13 +8600,13 @@
         <v>395</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>429</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>2293</v>
+        <v>2286</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>466</v>
@@ -8603,7 +8615,7 @@
         <v>484</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>2303</v>
+        <v>2296</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>522</v>
@@ -8612,7 +8624,7 @@
         <v>325</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>571</v>
@@ -8627,154 +8639,154 @@
         <v>631</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="BJ3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="BP3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="BW3" s="4" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="CE3" s="3" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="CH3" s="3" t="s">
         <v>53</v>
@@ -8819,13 +8831,13 @@
         <v>53</v>
       </c>
       <c r="CV3" s="3" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="CW3" s="3" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="CX3" s="3" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="CY3" s="3" t="s">
         <v>53</v>
@@ -8846,31 +8858,31 @@
         <v>53</v>
       </c>
       <c r="DE3" s="3" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="DF3" s="3" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="DG3" s="3" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
       <c r="DH3" s="3" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="DI3" s="3" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="DJ3" s="3" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="DK3" s="3" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="DL3" s="3" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
       <c r="DM3" s="3" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="4" spans="1:117" ht="19" customHeight="1">
@@ -8902,19 +8914,19 @@
         <v>172</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>206</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>2235</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>2242</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>286</v>
@@ -8926,13 +8938,13 @@
         <v>311</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>2260</v>
+        <v>2253</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>340</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>2266</v>
+        <v>2259</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>376</v>
@@ -8980,250 +8992,250 @@
         <v>632</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>1013</v>
+        <v>2305</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="BQ4" s="3" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="BT4" s="4" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="BU4" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="BW4" s="4" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="BY4" s="4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="CA4" s="3" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="CE4" s="3" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>1612</v>
+        <v>2309</v>
       </c>
       <c r="CG4" s="3" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="CI4" s="3" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="CJ4" s="4" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="CK4" s="4" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="CL4" s="3" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="CM4" s="4" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="CN4" s="3" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="CO4" s="3" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="CQ4" s="3" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="CR4" s="4" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="CS4" s="3" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="CT4" s="3" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="CU4" s="3" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="CV4" s="3" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="CW4" s="3" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="CX4" s="4" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="CY4" s="4" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="CZ4" s="4" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="DA4" s="4" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="DB4" s="4" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="DC4" s="4" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="DD4" s="4" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="DE4" s="3" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
       <c r="DF4" s="3" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
       <c r="DG4" s="3" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
       <c r="DH4" s="4" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="DI4" s="4" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="DJ4" s="4" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="DK4" s="4" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="DL4" s="3" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
       <c r="DM4" s="3" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="5" spans="1:117" ht="19" customHeight="1">
@@ -9255,22 +9267,22 @@
         <v>173</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>2221</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>2226</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>2228</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>2233</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>256</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>289</v>
@@ -9279,7 +9291,7 @@
         <v>312</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>2261</v>
+        <v>2254</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>341</v>
@@ -9291,28 +9303,28 @@
         <v>377</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>431</v>
       </c>
       <c r="Y5" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>2293</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>2294</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>2300</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>2301</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>502</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>2305</v>
+        <v>2298</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>539</v>
@@ -9333,250 +9345,250 @@
         <v>633</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AX5" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AY5" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="BA5" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="BC5" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="BI5" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="BL5" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BN5" s="3" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="BO5" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="BP5" s="3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="BQ5" s="4" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="BR5" s="4" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="BS5" s="3" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="BT5" s="4" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="BU5" s="3" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="BV5" s="3" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="BW5" s="4" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="BX5" s="3" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="BY5" s="3" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="BZ5" s="4" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="CB5" s="3" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="CC5" s="3" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="CD5" s="3" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="CE5" s="3" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="CF5" s="4" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="CG5" s="3" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="CH5" s="3" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="CI5" s="3" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="CK5" s="3" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="CL5" s="4" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="CM5" s="4" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="CN5" s="3" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="CO5" s="3" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="CP5" s="4" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="CQ5" s="4" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="CR5" s="3" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="CS5" s="3" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="CT5" s="3" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="CU5" s="4" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="CV5" s="4" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="CW5" s="4" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="CX5" s="3" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="CY5" s="4" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="CZ5" s="3" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="DA5" s="3" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="DB5" s="3" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="DC5" s="4" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="DD5" s="4" t="s">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="DE5" s="3" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="DF5" s="3" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="DG5" s="4" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="DH5" s="3" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="DI5" s="4" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="DJ5" s="4" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
       <c r="DK5" s="4" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="DL5" s="4" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="DM5" s="4" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="6" spans="1:117" ht="19" customHeight="1">
@@ -9647,7 +9659,7 @@
         <v>397</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>432</v>
@@ -9686,76 +9698,76 @@
         <v>634</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="BD6" s="3" t="s">
         <v>154</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="BF6" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="BG6" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="BH6" s="3" t="s">
         <v>53</v>
@@ -9764,172 +9776,172 @@
         <v>53</v>
       </c>
       <c r="BJ6" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="BP6" s="3" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="BQ6" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="BT6" s="3" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="BU6" s="3" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="BV6" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="BW6" s="3" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="BY6" s="3" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="BZ6" s="3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="CB6" s="3" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="CD6" s="3" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="CE6" s="3" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="CF6" s="3" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="CG6" s="3" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="CH6" s="3" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="CI6" s="3" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="CJ6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK6" s="3" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="CL6" s="3" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="CM6" s="3" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="CN6" s="3" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="CO6" s="3" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="CP6" s="3" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="CQ6" s="3" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="CR6" s="3" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="CS6" s="3" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="CT6" s="3" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="CU6" s="3" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="CV6" s="3" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="CW6" s="3" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="CX6" s="3" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="CY6" s="3" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="CZ6" s="3" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="DA6" s="3" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="DB6" s="3" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="DC6" s="3" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="DD6" s="3" t="s">
-        <v>2030</v>
+        <v>2023</v>
       </c>
       <c r="DE6" s="3" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="DF6" s="3" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="DG6" s="3" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
       <c r="DH6" s="3" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="DI6" s="3" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="DJ6" s="3" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="DK6" s="3" t="s">
-        <v>2154</v>
+        <v>2147</v>
       </c>
       <c r="DL6" s="3" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
       <c r="DM6" s="3" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="7" spans="1:117" ht="19" customHeight="1">
@@ -10039,250 +10051,250 @@
         <v>380</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="BF7" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="BJ7" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="BO7" s="3" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="BP7" s="3" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="BQ7" s="3" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="BR7" s="3" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="BT7" s="3" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="BU7" s="3" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="BV7" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="BW7" s="3" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="BY7" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="BZ7" s="3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="CA7" s="3" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="CB7" s="3" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="CD7" s="3" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="CE7" s="3" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="CF7" s="3" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="CG7" s="3" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="CH7" s="3" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="CI7" s="3" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="CJ7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK7" s="3" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="CL7" s="3" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="CM7" s="3" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="CN7" s="3" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="CO7" s="3" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="CP7" s="3" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="CQ7" s="3" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="CR7" s="3" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="CS7" s="3" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="CT7" s="3" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="CU7" s="3" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="CV7" s="3" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="CW7" s="3" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="CX7" s="3" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="CY7" s="3" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="CZ7" s="3" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="DA7" s="3" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="DB7" s="3" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="DC7" s="3" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="DD7" s="3" t="s">
-        <v>2031</v>
+        <v>2024</v>
       </c>
       <c r="DE7" s="3" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="DF7" s="3" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="DG7" s="3" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="DH7" s="3" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="DI7" s="3" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="DJ7" s="3" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="DK7" s="3" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="DL7" s="3" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="DM7" s="3" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="8" spans="1:117" ht="19" customHeight="1">
@@ -10392,250 +10404,250 @@
         <v>380</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AO8" s="3" t="s">
         <v>469</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AS8" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AV8" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AY8" s="3" t="s">
         <v>135</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="BF8" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="BG8" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="BI8" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="BJ8" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="BK8" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BN8" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="BO8" s="3" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="BP8" s="3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="BQ8" s="3" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="BR8" s="3" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="BS8" s="3" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="BT8" s="3" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="BU8" s="3" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="BV8" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="BW8" s="3" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="BX8" s="3" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="BY8" s="3" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="BZ8" s="3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="CA8" s="3" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="CB8" s="3" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="CD8" s="3" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="CE8" s="3" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="CF8" s="3" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="CG8" s="3" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="CH8" s="3" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="CI8" s="3" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="CK8" s="3" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="CL8" s="3" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="CM8" s="3" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="CN8" s="3" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="CO8" s="3" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="CP8" s="3" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="CQ8" s="3" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="CR8" s="3" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="CS8" s="3" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="CT8" s="3" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="CU8" s="3" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="CV8" s="3" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="CW8" s="3" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="CX8" s="3" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="CY8" s="3" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="CZ8" s="3" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="DA8" s="3" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="DB8" s="3" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="DC8" s="3" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="DD8" s="3" t="s">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="DE8" s="3" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="DF8" s="3" t="s">
-        <v>2067</v>
+        <v>2060</v>
       </c>
       <c r="DG8" s="3" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="DH8" s="3" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="DI8" s="3" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="DJ8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="DK8" s="3" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="DL8" s="3" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="DM8" s="3" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="9" spans="1:117" ht="19" customHeight="1">
@@ -10745,250 +10757,250 @@
         <v>380</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AO9" s="3" t="s">
         <v>469</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AX9" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AY9" s="3" t="s">
         <v>135</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="BA9" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="BB9" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BC9" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="BD9" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="BF9" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="BG9" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="BH9" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="BI9" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="BJ9" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="BK9" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="BL9" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="BM9" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BN9" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="BO9" s="3" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="BP9" s="3" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="BQ9" s="3" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="BR9" s="3" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="BS9" s="3" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="BT9" s="3" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="BU9" s="3" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="BV9" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="BW9" s="3" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="BX9" s="3" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="BY9" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="BZ9" s="3" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="CA9" s="3" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="CB9" s="3" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="CC9" s="3" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="CD9" s="3" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="CE9" s="3" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="CF9" s="3" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="CG9" s="3" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="CH9" s="3" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="CI9" s="3" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="CJ9" s="3" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="CK9" s="3" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="CL9" s="3" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="CM9" s="3" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="CN9" s="3" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="CO9" s="3" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="CP9" s="3" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="CQ9" s="3" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="CR9" s="3" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="CS9" s="3" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="CT9" s="3" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="CU9" s="3" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="CV9" s="3" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="CW9" s="3" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="CX9" s="3" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="CY9" s="3" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="CZ9" s="3" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="DA9" s="3" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="DB9" s="3" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="DC9" s="3" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="DD9" s="3" t="s">
-        <v>2033</v>
+        <v>2026</v>
       </c>
       <c r="DE9" s="3" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="DF9" s="3" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="DG9" s="3" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="DH9" s="3" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="DI9" s="3" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="DJ9" s="3" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="DK9" s="3" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="DL9" s="3" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="DM9" s="3" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="10" spans="1:117" ht="19" customHeight="1">
@@ -11096,250 +11108,250 @@
         <v>381</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AO10" s="3" t="s">
         <v>470</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AW10" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AX10" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AY10" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="BD10" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="BF10" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="BG10" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="BI10" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="BJ10" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="BK10" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="BL10" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="BO10" s="3" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="BP10" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="BQ10" s="3" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="BR10" s="3" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="BT10" s="3" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="BU10" s="3" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="BV10" s="3" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="BW10" s="3" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="BX10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BY10" s="3" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="BZ10" s="3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="CA10" s="3" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="CB10" s="3" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="CC10" s="3" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="CD10" s="3" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="CE10" s="3" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="CF10" s="3" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="CG10" s="3" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="CH10" s="3" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="CI10" s="3" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="CJ10" s="3" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="CK10" s="3" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="CL10" s="3" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="CM10" s="3" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="CN10" s="3" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="CO10" s="3" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="CP10" s="3" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="CQ10" s="3" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="CR10" s="3" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="CS10" s="3" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="CT10" s="3" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="CU10" s="3" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="CV10" s="3" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="CW10" s="3" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="CX10" s="3" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="CY10" s="3" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="CZ10" s="3" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="DA10" s="3" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="DB10" s="3" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="DC10" s="3" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="DD10" s="3" t="s">
-        <v>2034</v>
+        <v>2027</v>
       </c>
       <c r="DE10" s="3" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="DF10" s="3" t="s">
-        <v>2068</v>
+        <v>2061</v>
       </c>
       <c r="DG10" s="3" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="DH10" s="3" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="DI10" s="3" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="DJ10" s="3" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="DK10" s="3" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="DL10" s="3" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="DM10" s="3" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="11" spans="1:117" ht="19" customHeight="1">
@@ -11410,7 +11422,7 @@
         <v>398</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="X11" s="3" t="s">
         <v>436</v>
@@ -11449,250 +11461,250 @@
         <v>380</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AO11" s="3" t="s">
         <v>260</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AU11" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AV11" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AW11" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AX11" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AY11" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AZ11" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="BB11" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BC11" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="BD11" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="BF11" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="BG11" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="BH11" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="BI11" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="BJ11" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="BK11" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="BL11" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="BM11" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="BO11" s="3" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="BP11" s="3" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="BQ11" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BR11" s="3" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="BS11" s="3" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="BT11" s="3" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="BU11" s="3" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="BV11" s="3" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="BW11" s="3" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="BX11" s="3" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="BY11" s="3" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="BZ11" s="3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="CA11" s="3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="CB11" s="3" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="CC11" s="3" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="CD11" s="3" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="CE11" s="3" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="CF11" s="3" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="CG11" s="3" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="CH11" s="3" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="CI11" s="3" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="CJ11" s="3" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="CK11" s="3" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="CL11" s="3" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="CM11" s="3" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="CN11" s="3" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="CO11" s="3" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="CP11" s="3" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="CQ11" s="3" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="CR11" s="3" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="CS11" s="3" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="CT11" s="3" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="CU11" s="3" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="CV11" s="3" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="CW11" s="3" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="CX11" s="3" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="CY11" s="3" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="CZ11" s="3" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="DA11" s="3" t="s">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="DB11" s="3" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="DC11" s="3" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="DD11" s="3" t="s">
-        <v>2035</v>
+        <v>2028</v>
       </c>
       <c r="DE11" s="3" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="DF11" s="3" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="DG11" s="3" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="DH11" s="3" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="DI11" s="3" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="DJ11" s="3" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="DK11" s="3" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="DL11" s="3" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="DM11" s="3" t="s">
-        <v>2193</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="12" spans="1:117" ht="19" customHeight="1">
@@ -11802,250 +11814,250 @@
         <v>634</v>
       </c>
       <c r="AJ12" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AN12" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AQ12" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AU12" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AW12" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AX12" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AY12" s="3" t="s">
         <v>135</v>
       </c>
       <c r="AZ12" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="BA12" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BC12" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="BD12" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="BF12" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="BG12" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="BI12" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="BJ12" s="3" t="s">
         <v>504</v>
       </c>
       <c r="BK12" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="BL12" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="BM12" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BN12" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="BO12" s="3" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="BP12" s="3" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="BQ12" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="BR12" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="BS12" s="3" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="BT12" s="3" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="BU12" s="3" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="BV12" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="BW12" s="3" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="BX12" s="3" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="BY12" s="3" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="BZ12" s="3" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="CA12" s="3" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="CB12" s="3" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="CC12" s="3" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="CD12" s="3" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="CE12" s="3" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="CF12" s="3" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="CG12" s="3" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="CH12" s="3" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="CI12" s="3" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="CJ12" s="3" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="CK12" s="3" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="CL12" s="3" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="CM12" s="3" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="CN12" s="3" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="CO12" s="3" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="CP12" s="3" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="CQ12" s="3" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="CR12" s="3" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="CS12" s="3" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="CT12" s="3" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="CU12" s="3" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="CV12" s="3" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="CW12" s="3" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="CX12" s="3" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="CY12" s="3" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="CZ12" s="3" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="DA12" s="3" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="DB12" s="4" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="DC12" s="3" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="DD12" s="3" t="s">
-        <v>2036</v>
+        <v>2029</v>
       </c>
       <c r="DE12" s="3" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="DF12" s="3" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="DG12" s="3" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="DH12" s="3" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="DI12" s="3" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="DJ12" s="3" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
       <c r="DK12" s="3" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
       <c r="DL12" s="3" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="DM12" s="3" t="s">
-        <v>2194</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="13" spans="1:117" ht="19" customHeight="1">
@@ -12089,7 +12101,7 @@
         <v>245</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>2241</v>
+        <v>2234</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>278</v>
@@ -12098,7 +12110,7 @@
         <v>296</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>2254</v>
+        <v>2247</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>330</v>
@@ -12113,7 +12125,7 @@
         <v>384</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>2282</v>
+        <v>2275</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>418</v>
@@ -12155,250 +12167,250 @@
         <v>635</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AX13" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AY13" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AZ13" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="BC13" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="BD13" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="BF13" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="BG13" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="BI13" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="BL13" s="4" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="BN13" s="3" t="s">
         <v>599</v>
       </c>
       <c r="BO13" s="3" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="BP13" s="3" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="BQ13" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="BR13" s="3" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="BS13" s="3" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="BU13" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="BV13" s="3" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="BW13" s="3" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="BX13" s="3" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="BY13" s="3" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="BZ13" s="4" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="CA13" s="3" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="CB13" s="3" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="CC13" s="3" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="CD13" s="3" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="CE13" s="3" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="CF13" s="3" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="CG13" s="3" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="CH13" s="3" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="CI13" s="3" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="CJ13" s="3" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="CK13" s="3" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="CL13" s="3" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="CM13" s="3" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="CN13" s="3" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="CO13" s="4" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="CP13" s="3" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="CQ13" s="3" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="CR13" s="4" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="CS13" s="4" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="CT13" s="4" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="CU13" s="3" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="CV13" s="3" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="CW13" s="3" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="CX13" s="4" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="CY13" s="3" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="CZ13" s="3" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="DA13" s="4" t="s">
-        <v>1984</v>
+        <v>1977</v>
       </c>
       <c r="DB13" s="4" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="DC13" s="3" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="DD13" s="3" t="s">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="DE13" s="4" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="DF13" s="4" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="DG13" s="3" t="s">
-        <v>2087</v>
+        <v>2080</v>
       </c>
       <c r="DH13" s="3" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="DI13" s="4" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="DJ13" s="3" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="DK13" s="3" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="DL13" s="3" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="DM13" s="3" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="14" spans="1:117" ht="19" customHeight="1">
@@ -12451,16 +12463,16 @@
         <v>297</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>2255</v>
+        <v>2248</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>331</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>2263</v>
+        <v>2256</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>385</v>
@@ -12508,250 +12520,250 @@
         <v>636</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AN14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AW14" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AX14" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AY14" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="BA14" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="BD14" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="BF14" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="BG14" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="BI14" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="BJ14" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="BK14" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BL14" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="BM14" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="BO14" s="3" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="BP14" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="BQ14" s="3" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="BR14" s="3" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="BS14" s="3" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="BT14" s="3" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="BU14" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="BV14" s="3" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="BW14" s="3" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="BX14" s="3" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="BY14" s="3" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="BZ14" s="3" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="CA14" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="CB14" s="3" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="CC14" s="3" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="CD14" s="3" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="CE14" s="3" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="CF14" s="3" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="CG14" s="5" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="CH14" s="3" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="CI14" s="3" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="CJ14" s="3" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="CK14" s="3" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="CL14" s="3" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="CM14" s="3" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="CN14" s="3" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="CO14" s="3" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="CP14" s="3" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="CQ14" s="3" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="CR14" s="4" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="CS14" s="3" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="CT14" s="3" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="CU14" s="4" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="CV14" s="4" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="CW14" s="3" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="CX14" s="3" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="CY14" s="3" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="CZ14" s="3" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="DA14" s="3" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="DB14" s="4" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="DC14" s="3" t="s">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="DD14" s="3" t="s">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="DE14" s="3" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="DF14" s="3" t="s">
-        <v>2071</v>
+        <v>2064</v>
       </c>
       <c r="DG14" s="3" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="DH14" s="3" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="DI14" s="3" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="DJ14" s="3" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="DK14" s="3" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="DL14" s="3" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="DM14" s="3" t="s">
-        <v>2196</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="15" spans="1:117" ht="19" customHeight="1">
@@ -12837,7 +12849,7 @@
         <v>53</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>2304</v>
+        <v>2297</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>53</v>
@@ -12867,7 +12879,7 @@
         <v>53</v>
       </c>
       <c r="AL15" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AM15" s="3" t="s">
         <v>53</v>
@@ -12897,22 +12909,22 @@
         <v>53</v>
       </c>
       <c r="AV15" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AW15" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AX15" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AZ15" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="BA15" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BB15" s="3" t="s">
         <v>53</v>
@@ -12927,7 +12939,7 @@
         <v>53</v>
       </c>
       <c r="BF15" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="BG15" s="3" t="s">
         <v>53</v>
@@ -12942,22 +12954,22 @@
         <v>53</v>
       </c>
       <c r="BK15" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BL15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BM15" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="BN15" s="3" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="BO15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BP15" s="3" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="BQ15" s="3" t="s">
         <v>53</v>
@@ -13005,7 +13017,7 @@
         <v>53</v>
       </c>
       <c r="CF15" s="3" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="CG15" s="3" t="s">
         <v>53</v>
@@ -13151,13 +13163,13 @@
         <v>265</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>299</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>2256</v>
+        <v>2249</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>331</v>
@@ -13214,235 +13226,235 @@
         <v>637</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AS16" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AT16" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AU16" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AV16" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AW16" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AX16" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AY16" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AZ16" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="BA16" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="BC16" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="BD16" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="BF16" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="BG16" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="BH16" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="BI16" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="BJ16" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="BK16" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="BL16" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="BM16" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="BN16" s="3" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="BO16" s="3" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="BP16" s="3" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="BQ16" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="BR16" s="3" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="BS16" s="4" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="BT16" s="4" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="BU16" s="3" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="BV16" s="3" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="BW16" s="3" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="BX16" s="3" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="BY16" s="3" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="BZ16" s="3" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="CA16" s="3" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="CB16" s="3" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="CC16" s="3" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="CD16" s="3" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="CE16" s="3" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="CF16" s="3" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="CG16" s="4" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="CH16" s="4" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="CI16" s="3" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="CJ16" s="3" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="CK16" s="3" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="CL16" s="3" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="CM16" s="4" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="CN16" s="3" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="CO16" s="3" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="CP16" s="3" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="CQ16" s="3" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="CR16" s="3" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="CS16" s="3" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="CT16" s="3" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="CU16" s="4" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="CV16" s="3" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="CW16" s="3" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="CX16" s="3" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="CY16" s="4" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="CZ16" s="3" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="DA16" s="3" t="s">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="DB16" s="4" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="DC16" s="3" t="s">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="DD16" s="3" t="s">
-        <v>2039</v>
+        <v>2032</v>
       </c>
       <c r="DE16" s="3" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="DF16" s="3" t="s">
-        <v>2072</v>
+        <v>2065</v>
       </c>
       <c r="DG16" s="3" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
       <c r="DH16" s="3" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="DI16" s="4" t="s">
         <v>53</v>
@@ -13451,7 +13463,7 @@
         <v>53</v>
       </c>
       <c r="DK16" s="4" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="DL16" s="3" t="s">
         <v>53</v>
@@ -13468,7 +13480,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>83</v>
@@ -13477,7 +13489,7 @@
         <v>104</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>142</v>
@@ -13489,13 +13501,13 @@
         <v>183</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>215</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>2232</v>
+        <v>2225</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>248</v>
@@ -13507,7 +13519,7 @@
         <v>285</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>317</v>
@@ -13564,253 +13576,253 @@
         <v>620</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>2310</v>
+        <v>2303</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AS17" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AU17" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AW17" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AY17" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AZ17" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="BC17" s="3" t="s">
         <v>184</v>
       </c>
       <c r="BD17" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="BE17" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="BF17" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="BG17" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="BH17" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="BI17" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="BJ17" s="3" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="BK17" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="BL17" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="BM17" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="BN17" s="4" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="BO17" s="4" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="BP17" s="4" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="BQ17" s="3" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="BR17" s="4" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="BS17" s="4" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="BT17" s="3" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="BU17" s="3" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="BV17" s="3" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="BW17" s="3" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="BY17" s="3" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="BZ17" s="3" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="CA17" s="3" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="CB17" s="3" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="CC17" s="4" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="CD17" s="3" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="CE17" s="4" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="CF17" s="4" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="CG17" s="3" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="CH17" s="4" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="CI17" s="3" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="CJ17" s="3" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="CK17" s="3" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="CL17" s="4" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="CM17" s="4" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="CN17" s="3" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="CO17" s="3" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="CP17" s="3" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="CQ17" s="4" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="CR17" s="4" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="CS17" s="4" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="CT17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CU17" s="3" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="CV17" s="3" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="CW17" s="4" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="CX17" s="4" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="CY17" s="4" t="s">
+        <v>1951</v>
+      </c>
+      <c r="CZ17" s="4" t="s">
         <v>1957</v>
       </c>
-      <c r="CZ17" s="4" t="s">
-        <v>1964</v>
-      </c>
       <c r="DA17" s="4" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="DB17" s="4" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="DC17" s="3" t="s">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="DD17" s="3" t="s">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="DE17" s="3" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="DF17" s="3" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="DG17" s="3" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
       <c r="DH17" s="3" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="DI17" s="4" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="DJ17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="DK17" s="4" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="DL17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="DM17" s="3" t="s">
-        <v>2197</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="18" spans="1:117" ht="19" customHeight="1">
@@ -13821,7 +13833,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>84</v>
@@ -13830,7 +13842,7 @@
         <v>105</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>143</v>
@@ -13857,16 +13869,16 @@
         <v>267</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>2247</v>
+        <v>2240</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>300</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>2257</v>
+        <v>2250</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>349</v>
@@ -13878,13 +13890,13 @@
         <v>388</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>422</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>460</v>
@@ -13899,10 +13911,10 @@
         <v>511</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>2306</v>
+        <v>2299</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>2277</v>
+        <v>2270</v>
       </c>
       <c r="AE18" s="4" t="s">
         <v>562</v>
@@ -13920,250 +13932,250 @@
         <v>638</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AX18" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AY18" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AZ18" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="BA18" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="BC18" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="BD18" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="BF18" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="BG18" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="BH18" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="BI18" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="BJ18" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="BK18" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="BL18" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="BM18" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="BN18" s="4" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="BO18" s="3" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="BP18" s="4" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="BQ18" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="BR18" s="4" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="BS18" s="3" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="BT18" s="3" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="BU18" s="3" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="BV18" s="3" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="BW18" s="3" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="BX18" s="3" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="BY18" s="4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="BZ18" s="3" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="CA18" s="3" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="CB18" s="4" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="CC18" s="3" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="CD18" s="3" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="CE18" s="4" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="CF18" s="4" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="CG18" s="3" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="CH18" s="3" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="CI18" s="3" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="CJ18" s="3" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="CK18" s="4" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="CL18" s="4" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="CM18" s="4" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="CN18" s="4" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="CO18" s="3" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="CP18" s="4" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="CQ18" s="3" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="CR18" s="3" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="CS18" s="3" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="CT18" s="4" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="CU18" s="4" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="CV18" s="3" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="CW18" s="3" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="CX18" s="4" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="CY18" s="3" t="s">
+        <v>1950</v>
+      </c>
+      <c r="CZ18" s="4" t="s">
         <v>1956</v>
       </c>
-      <c r="CZ18" s="4" t="s">
-        <v>1963</v>
-      </c>
       <c r="DA18" s="4" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="DB18" s="4" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="DC18" s="3" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="DD18" s="3" t="s">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="DE18" s="3" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="DF18" s="3" t="s">
-        <v>2074</v>
+        <v>2067</v>
       </c>
       <c r="DG18" s="4" t="s">
-        <v>2091</v>
+        <v>2084</v>
       </c>
       <c r="DH18" s="3" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="DI18" s="4" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="DJ18" s="4" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="DK18" s="3" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="DL18" s="4" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="DM18" s="4" t="s">
-        <v>2198</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="19" spans="1:117" ht="19" customHeight="1">
@@ -14222,7 +14234,7 @@
         <v>333</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>367</v>
@@ -14237,13 +14249,13 @@
         <v>423</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>2291</v>
+        <v>2284</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>2295</v>
+        <v>2288</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>2299</v>
+        <v>2292</v>
       </c>
       <c r="AA19" s="3" t="s">
         <v>493</v>
@@ -14273,40 +14285,40 @@
         <v>639</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AP19" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AQ19" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AV19" s="3" t="s">
         <v>53</v>
@@ -14370,7 +14382,7 @@
         <v>53</v>
       </c>
       <c r="BQ19" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="BR19" s="3" t="s">
         <v>53</v>
@@ -14528,22 +14540,22 @@
         <v>69</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>2211</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>2213</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>2216</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>2218</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>199</v>
@@ -14558,7 +14570,7 @@
         <v>251</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>282</v>
@@ -14576,25 +14588,25 @@
         <v>350</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>2268</v>
+        <v>2261</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>390</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>2280</v>
+        <v>2273</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>2288</v>
+        <v>2281</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>2292</v>
+        <v>2285</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>2296</v>
+        <v>2289</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>2298</v>
+        <v>2291</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>494</v>
@@ -14606,7 +14618,7 @@
         <v>534</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="AE20" s="4" t="s">
         <v>564</v>
@@ -14624,250 +14636,250 @@
         <v>640</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AK20" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AQ20" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AU20" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="BF20" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="BG20" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="BH20" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="BI20" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="BJ20" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="BK20" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="BL20" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="BM20" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="BN20" s="4" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="BO20" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="BP20" s="3" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="BQ20" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="BR20" s="4" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="BS20" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="BT20" s="4" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="BU20" s="3" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="BV20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BW20" s="3" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="BX20" s="3" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="BY20" s="4" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="BZ20" s="3" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="CA20" s="3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="CB20" s="3" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="CC20" s="3" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="CD20" s="3" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="CE20" s="3" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="CF20" s="3" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="CG20" s="3" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="CH20" s="3" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="CI20" s="3" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="CJ20" s="3" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="CK20" s="4" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="CL20" s="3" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="CM20" s="3" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="CN20" s="3" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="CO20" s="3" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="CP20" s="3" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="CQ20" s="3" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="CR20" s="4" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="CS20" s="3" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="CT20" s="4" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="CU20" s="3" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="CV20" s="3" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="CW20" s="4" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="CX20" s="4" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="CY20" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="CZ20" s="3" t="s">
         <v>1955</v>
       </c>
-      <c r="CZ20" s="3" t="s">
-        <v>1961</v>
-      </c>
       <c r="DA20" s="3" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="DB20" s="3" t="s">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="DC20" s="4" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="DD20" s="4" t="s">
-        <v>2042</v>
+        <v>2035</v>
       </c>
       <c r="DE20" s="3" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
       <c r="DF20" s="3" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="DG20" s="4" t="s">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="DH20" s="3" t="s">
-        <v>2113</v>
+        <v>2106</v>
       </c>
       <c r="DI20" s="4" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="DJ20" s="4" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="DK20" s="3" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="DL20" s="4" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="DM20" s="3" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="21" spans="1:117" ht="19" customHeight="1">
@@ -14977,172 +14989,172 @@
         <v>641</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AU21" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AV21" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AW21" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="BD21" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="BG21" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="BH21" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="BI21" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="BJ21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BK21" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="BL21" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="BM21" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="BN21" s="3" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="BO21" s="3" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="BP21" s="3" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="BQ21" s="3" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="BR21" s="3" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="BS21" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="BT21" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="BU21" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="BV21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BW21" s="3" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="BX21" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="BY21" s="3" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="BZ21" s="3" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="CA21" s="3" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="CB21" s="3" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="CC21" s="3" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="CD21" s="3" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="CE21" s="3" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="CF21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CG21" s="3" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="CH21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CI21" s="3" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="CJ21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK21" s="3" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="CL21" s="3" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="CM21" s="3" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="CN21" s="3" t="s">
         <v>53</v>
@@ -15169,13 +15181,13 @@
         <v>53</v>
       </c>
       <c r="CV21" s="3" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="CW21" s="3" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="CX21" s="3" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="CY21" s="3" t="s">
         <v>53</v>
@@ -15196,31 +15208,31 @@
         <v>53</v>
       </c>
       <c r="DE21" s="3" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="DF21" s="3" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="DG21" s="3" t="s">
-        <v>2093</v>
+        <v>2086</v>
       </c>
       <c r="DH21" s="3" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="DI21" s="3" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="DJ21" s="3" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="DK21" s="3" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="DL21" s="3" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="DM21" s="3" t="s">
-        <v>2199</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="22" spans="1:117" ht="19" customHeight="1">
@@ -15330,124 +15342,124 @@
         <v>642</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AL22" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AQ22" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AU22" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AX22" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AY22" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AZ22" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="BA22" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="BB22" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="BC22" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="BD22" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="BF22" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="BG22" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="BH22" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="BI22" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="BJ22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BK22" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="BL22" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="BM22" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="BN22" s="3" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="BO22" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="BP22" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="BQ22" s="3" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="BR22" s="3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="BS22" s="3" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="BT22" s="3" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="BU22" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="BV22" s="3" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="BW22" s="3" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="BX22" s="3" t="s">
         <v>53</v>
@@ -15459,19 +15471,19 @@
         <v>53</v>
       </c>
       <c r="CA22" s="3" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="CB22" s="3" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="CC22" s="3" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="CD22" s="3" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="CE22" s="3" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="CF22" s="3" t="s">
         <v>53</v>
@@ -15483,19 +15495,19 @@
         <v>53</v>
       </c>
       <c r="CI22" s="3" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="CJ22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK22" s="3" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="CL22" s="3" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="CM22" s="3" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="CN22" s="3" t="s">
         <v>53</v>
@@ -15522,13 +15534,13 @@
         <v>53</v>
       </c>
       <c r="CV22" s="3" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="CW22" s="3" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="CX22" s="3" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="CY22" s="3" t="s">
         <v>53</v>
@@ -15549,16 +15561,16 @@
         <v>53</v>
       </c>
       <c r="DE22" s="3" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="DF22" s="3" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="DG22" s="3" t="s">
-        <v>2094</v>
+        <v>2087</v>
       </c>
       <c r="DH22" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="DI22" s="3" t="s">
         <v>53</v>
@@ -15567,7 +15579,7 @@
         <v>53</v>
       </c>
       <c r="DK22" s="3" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="DL22" s="3" t="s">
         <v>53</v>
@@ -15620,7 +15632,7 @@
         <v>271</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>2248</v>
+        <v>2241</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>305</v>
@@ -15656,7 +15668,7 @@
         <v>479</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>2302</v>
+        <v>2295</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>516</v>
@@ -15683,148 +15695,148 @@
         <v>643</v>
       </c>
       <c r="AJ23" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AL23" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AQ23" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AR23" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AT23" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AU23" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AV23" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AW23" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AX23" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AY23" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AZ23" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="BA23" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="BB23" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="BC23" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="BD23" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="BF23" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="BJ23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="BL23" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="BM23" s="3" t="s">
         <v>220</v>
       </c>
       <c r="BN23" s="3" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="BO23" s="3" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="BP23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BQ23" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="BR23" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="BS23" s="3" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="BT23" s="3" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="BU23" s="3" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="BV23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BW23" s="3" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="BX23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="BY23" s="3" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="BZ23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CA23" s="3" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="CB23" s="3" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="CC23" s="3" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="CD23" s="3" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="CE23" s="3" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="CF23" s="3" t="s">
         <v>53</v>
@@ -15836,28 +15848,28 @@
         <v>53</v>
       </c>
       <c r="CI23" s="3" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="CJ23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CK23" s="3" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="CL23" s="3" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="CM23" s="3" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="CN23" s="3" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="CO23" s="3" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="CP23" s="3" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="CQ23" s="3" t="s">
         <v>53</v>
@@ -15875,19 +15887,19 @@
         <v>53</v>
       </c>
       <c r="CV23" s="3" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="CW23" s="3" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="CX23" s="3" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="CY23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CZ23" s="3" t="s">
-        <v>1962</v>
+        <v>2310</v>
       </c>
       <c r="DA23" s="3" t="s">
         <v>53</v>
@@ -15908,7 +15920,7 @@
         <v>53</v>
       </c>
       <c r="DG23" s="3" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="DH23" s="3" t="s">
         <v>53</v>
@@ -15920,7 +15932,7 @@
         <v>53</v>
       </c>
       <c r="DK23" s="3" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="DL23" s="3" t="s">
         <v>53</v>
@@ -15943,46 +15955,46 @@
         <v>89</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>2212</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>2217</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>2219</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>189</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>2217</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>2224</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>2229</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>2231</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>255</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>2239</v>
+        <v>2232</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>2250</v>
+        <v>2243</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>2252</v>
+        <v>2245</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>323</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>2309</v>
+        <v>2302</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>354</v>
@@ -16003,7 +16015,7 @@
         <v>445</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>2297</v>
+        <v>2290</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>480</v>
@@ -16015,10 +16027,10 @@
         <v>517</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>2307</v>
+        <v>2300</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>568</v>
@@ -16033,253 +16045,253 @@
         <v>627</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>644</v>
+        <v>2304</v>
       </c>
       <c r="AJ24" s="3" t="s">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AN24" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AP24" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AQ24" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AT24" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AU24" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AW24" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AX24" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AY24" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AZ24" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="BA24" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="BB24" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="BC24" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="BD24" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="BE24" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="BF24" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="BG24" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="BH24" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="BI24" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="BJ24" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="BK24" s="4" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="BL24" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="BM24" s="4" t="s">
-        <v>1253</v>
+        <v>2306</v>
       </c>
       <c r="BN24" s="3" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="BO24" s="3" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="BP24" s="4" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="BQ24" s="3" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="BR24" s="4" t="s">
-        <v>1356</v>
+        <v>2307</v>
       </c>
       <c r="BS24" s="4" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="BT24" s="3" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="BU24" s="3" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="BV24" s="4" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="BW24" s="3" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="BX24" s="4" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="BY24" s="4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="BZ24" s="4" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="CA24" s="3" t="s">
-        <v>1525</v>
+        <v>2308</v>
       </c>
       <c r="CB24" s="4" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="CC24" s="3" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="CD24" s="4" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="CE24" s="3" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="CF24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CG24" s="4" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="CH24" s="4" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="CI24" s="4" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="CJ24" s="3" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="CK24" s="3" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="CL24" s="3" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="CM24" s="3" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="CN24" s="4" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="CO24" s="3" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="CP24" s="4" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="CQ24" s="3" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="CR24" s="4" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="CS24" s="3" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="CT24" s="3" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="CU24" s="3" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="CV24" s="3" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="CW24" s="4" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="CX24" s="3" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="CY24" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="CZ24" s="3" t="s">
         <v>1954</v>
       </c>
-      <c r="CZ24" s="3" t="s">
-        <v>1960</v>
-      </c>
       <c r="DA24" s="4" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="DB24" s="3" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="DC24" s="4" t="s">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="DD24" s="3" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="DE24" s="3" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="DF24" s="3" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="DG24" s="3" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
       <c r="DH24" s="3" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="DI24" s="4" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="DJ24" s="4" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="DK24" s="4" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="DL24" s="4" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
       <c r="DM24" s="3" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="25" spans="1:117" ht="19" customHeight="1">
@@ -16311,46 +16323,46 @@
         <v>190</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>222</v>
       </c>
       <c r="L25" s="4" t="s">
+        <v>2223</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>2230</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>2237</v>
-      </c>
       <c r="N25" s="4" t="s">
-        <v>2238</v>
+        <v>2231</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="P25" s="4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>2251</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
+        <v>2252</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>2258</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>2259</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>2265</v>
-      </c>
       <c r="T25" s="4" t="s">
-        <v>2269</v>
+        <v>2262</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>2289</v>
+        <v>2282</v>
       </c>
       <c r="X25" s="3" t="s">
         <v>446</v>
@@ -16368,7 +16380,7 @@
         <v>518</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>2308</v>
+        <v>2301</v>
       </c>
       <c r="AD25" s="3" t="s">
         <v>549</v>
@@ -16386,253 +16398,253 @@
         <v>628</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AJ25" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AL25" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AM25" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AP25" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AS25" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AU25" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AV25" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AW25" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AX25" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AY25" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AZ25" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="BA25" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="BB25" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="BC25" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="BD25" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="BF25" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="BG25" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="BH25" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="BI25" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="BJ25" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="BK25" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="BL25" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="BM25" s="4" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="BN25" s="4" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="BO25" s="4" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="BP25" s="3" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="BQ25" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="BR25" s="3" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="BS25" s="3" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="BT25" s="3" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="BU25" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="BV25" s="4" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="BW25" s="4" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="BX25" s="4" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="BY25" s="4" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="BZ25" s="4" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="CA25" s="3" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="CB25" s="3" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="CC25" s="4" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="CD25" s="3" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="CE25" s="4" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="CF25" s="3" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="CG25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="CH25" s="4" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="CI25" s="3" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="CJ25" s="3" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="CK25" s="4" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="CL25" s="4" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="CM25" s="4" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="CN25" s="4" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="CO25" s="4" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="CP25" s="4" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="CQ25" s="4" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="CR25" s="4" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="CS25" s="4" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="CT25" s="4" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="CU25" s="3" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="CV25" s="4" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="CW25" s="4" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="CX25" s="4" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="CY25" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="CZ25" s="4" t="s">
         <v>1953</v>
       </c>
-      <c r="CZ25" s="4" t="s">
-        <v>1959</v>
-      </c>
       <c r="DA25" s="4" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="DB25" s="4" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="DC25" s="4" t="s">
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="DD25" s="4" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="DE25" s="4" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="DF25" s="4" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="DG25" s="4" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="DH25" s="4" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="DI25" s="4" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="DJ25" s="4" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="DK25" s="4" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
       <c r="DL25" s="4" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
       <c r="DM25" s="4" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="26" spans="1:117" ht="19" customHeight="1">
